--- a/Readme.asset/道一循公司医院客户应用申请表.xlsx
+++ b/Readme.asset/道一循公司医院客户应用申请表.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
-    <sheet name="申请表 - 道一循公司医院客户应用申请表" sheetId="1" r:id="rId4"/>
+    <sheet name="室内导航系统应用接入申请表" sheetId="2" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
-    <t>道一循公司医院客户应用申请表</t>
+    <t>道一循医院室内导航系统应用接入申请表</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>日  期</t>
   </si>
   <si>
-    <t>医院名称</t>
+    <t>1、医院名称</t>
   </si>
   <si>
-    <t>医院APP</t>
-  </si>
-  <si>
-    <t>医院微信公众号</t>
-  </si>
-  <si>
-    <t>医院支付宝生活号</t>
-  </si>
-  <si>
-    <t>项目代理商</t>
+    <t>2、医院官方APP</t>
   </si>
   <si>
     <t>APP名称</t>
@@ -40,13 +34,7 @@
     <t>Android包名</t>
   </si>
   <si>
-    <t>Android下载链接(应用宝)</t>
-  </si>
-  <si>
     <t>IOS包名</t>
-  </si>
-  <si>
-    <t>IOS下载链接</t>
   </si>
   <si>
     <t>上架时间</t>
@@ -55,62 +43,220 @@
     <t>供应商</t>
   </si>
   <si>
-    <t>联系人名字</t>
+    <t>联系人</t>
   </si>
   <si>
-    <t>联系人电话</t>
+    <t>电话</t>
   </si>
   <si>
-    <t>联系人微信</t>
+    <t>微信号</t>
+  </si>
+  <si>
+    <t>3、医院官方微信公众号</t>
   </si>
   <si>
     <t>微信公众号名称</t>
   </si>
   <si>
-    <t>生活号名称</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>项目时间</t>
+    <t>微信公众号链接</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="24"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="13"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,24 +265,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -145,14 +465,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -161,9 +526,37 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -171,24 +564,9 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -212,13 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -230,10 +606,10 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -242,304 +618,836 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="15"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color indexed="14"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color indexed="14"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1495426</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>652920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="47625"/>
+          <a:ext cx="1447800" cy="605155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2018665" y="4335780"/>
+          <a:ext cx="8772525" cy="706120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" forceAA="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>备注: 1. 填好表后请发送到 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>dev@ipsmap.com,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>关键参数信息会以邮件形式回复</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>上架时间为公众号上线时间，如果不确定可以不填</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+              <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>.公众号链接:需要对接大屏的医院必须填写！此链接我们将用来生成关注医院公众号的二维码</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -731,17 +1639,15 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -759,8 +1665,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,10 +1674,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -789,8 +1694,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -815,8 +1719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,8 +1744,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,8 +1769,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,8 +1794,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,8 +1819,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,8 +1844,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,8 +1869,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,8 +1894,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,26 +1907,30 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1048,8 +1948,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,8 +1973,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1100,8 +1998,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,8 +2023,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,8 +2048,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,8 +2073,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,8 +2098,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,8 +2123,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,8 +2148,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,8 +2173,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,9 +2186,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1309,10 +2205,8 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1330,8 +2224,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,10 +2233,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1360,8 +2253,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,8 +2278,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,8 +2303,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,8 +2328,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,8 +2353,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,8 +2378,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,8 +2403,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,8 +2428,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,8 +2453,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1582,9 +2466,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1593,427 +2483,436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:IF10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3796296296296" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.3516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.3516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.3516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.3516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.3516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.3516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.3516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.3516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.3516" style="1" customWidth="1"/>
-    <col min="27" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8796296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.1111111111111" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.3796296296296" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
+    <col min="10" max="240" width="16.3796296296296" style="2" customWidth="1"/>
+    <col min="241" max="16384" width="16.3796296296296" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="54.75" customHeight="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
     </row>
-    <row r="2" ht="21.5" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" ht="27.75" customHeight="1" spans="1:10">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" ht="28.5" customHeight="1" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" ht="29.25" customHeight="1" spans="1:9">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="9"/>
-      <c r="M2" t="s" s="15">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:240">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" t="s" s="19">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="18"/>
-      <c r="W2" t="s" s="19">
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="18"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" t="s" s="22">
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="22">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="22">
+      <c r="G6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="22">
+      <c r="H6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s" s="23">
+      <c r="I6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="24">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="30"/>
+      <c r="BC6" s="30"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="30"/>
+      <c r="BI6" s="30"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="30"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="30"/>
+      <c r="BV6" s="30"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
+      <c r="BY6" s="30"/>
+      <c r="BZ6" s="30"/>
+      <c r="CA6" s="30"/>
+      <c r="CB6" s="30"/>
+      <c r="CC6" s="30"/>
+      <c r="CD6" s="30"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="30"/>
+      <c r="CG6" s="30"/>
+      <c r="CH6" s="30"/>
+      <c r="CI6" s="30"/>
+      <c r="CJ6" s="30"/>
+      <c r="CK6" s="30"/>
+      <c r="CL6" s="30"/>
+      <c r="CM6" s="30"/>
+      <c r="CN6" s="30"/>
+      <c r="CO6" s="30"/>
+      <c r="CP6" s="30"/>
+      <c r="CQ6" s="30"/>
+      <c r="CR6" s="30"/>
+      <c r="CS6" s="30"/>
+      <c r="CT6" s="30"/>
+      <c r="CU6" s="30"/>
+      <c r="CV6" s="30"/>
+      <c r="CW6" s="30"/>
+      <c r="CX6" s="30"/>
+      <c r="CY6" s="30"/>
+      <c r="CZ6" s="30"/>
+      <c r="DA6" s="30"/>
+      <c r="DB6" s="30"/>
+      <c r="DC6" s="30"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="30"/>
+      <c r="DF6" s="30"/>
+      <c r="DG6" s="30"/>
+      <c r="DH6" s="30"/>
+      <c r="DI6" s="30"/>
+      <c r="DJ6" s="30"/>
+      <c r="DK6" s="30"/>
+      <c r="DL6" s="30"/>
+      <c r="DM6" s="30"/>
+      <c r="DN6" s="30"/>
+      <c r="DO6" s="30"/>
+      <c r="DP6" s="30"/>
+      <c r="DQ6" s="30"/>
+      <c r="DR6" s="30"/>
+      <c r="DS6" s="30"/>
+      <c r="DT6" s="30"/>
+      <c r="DU6" s="30"/>
+      <c r="DV6" s="30"/>
+      <c r="DW6" s="30"/>
+      <c r="DX6" s="30"/>
+      <c r="DY6" s="30"/>
+      <c r="DZ6" s="30"/>
+      <c r="EA6" s="30"/>
+      <c r="EB6" s="30"/>
+      <c r="EC6" s="30"/>
+      <c r="ED6" s="30"/>
+      <c r="EE6" s="30"/>
+      <c r="EF6" s="30"/>
+      <c r="EG6" s="30"/>
+      <c r="EH6" s="30"/>
+      <c r="EI6" s="30"/>
+      <c r="EJ6" s="30"/>
+      <c r="EK6" s="30"/>
+      <c r="EL6" s="30"/>
+      <c r="EM6" s="30"/>
+      <c r="EN6" s="30"/>
+      <c r="EO6" s="30"/>
+      <c r="EP6" s="30"/>
+      <c r="EQ6" s="30"/>
+      <c r="ER6" s="30"/>
+      <c r="ES6" s="30"/>
+      <c r="ET6" s="30"/>
+      <c r="EU6" s="30"/>
+      <c r="EV6" s="30"/>
+      <c r="EW6" s="30"/>
+      <c r="EX6" s="30"/>
+      <c r="EY6" s="30"/>
+      <c r="EZ6" s="30"/>
+      <c r="FA6" s="30"/>
+      <c r="FB6" s="30"/>
+      <c r="FC6" s="30"/>
+      <c r="FD6" s="30"/>
+      <c r="FE6" s="30"/>
+      <c r="FF6" s="30"/>
+      <c r="FG6" s="30"/>
+      <c r="FH6" s="30"/>
+      <c r="FI6" s="30"/>
+      <c r="FJ6" s="30"/>
+      <c r="FK6" s="30"/>
+      <c r="FL6" s="30"/>
+      <c r="FM6" s="30"/>
+      <c r="FN6" s="30"/>
+      <c r="FO6" s="30"/>
+      <c r="FP6" s="30"/>
+      <c r="FQ6" s="30"/>
+      <c r="FR6" s="30"/>
+      <c r="FS6" s="30"/>
+      <c r="FT6" s="30"/>
+      <c r="FU6" s="30"/>
+      <c r="FV6" s="30"/>
+      <c r="FW6" s="30"/>
+      <c r="FX6" s="30"/>
+      <c r="FY6" s="30"/>
+      <c r="FZ6" s="30"/>
+      <c r="GA6" s="30"/>
+      <c r="GB6" s="30"/>
+      <c r="GC6" s="30"/>
+      <c r="GD6" s="30"/>
+      <c r="GE6" s="30"/>
+      <c r="GF6" s="30"/>
+      <c r="GG6" s="30"/>
+      <c r="GH6" s="30"/>
+      <c r="GI6" s="30"/>
+      <c r="GJ6" s="30"/>
+      <c r="GK6" s="30"/>
+      <c r="GL6" s="30"/>
+      <c r="GM6" s="30"/>
+      <c r="GN6" s="30"/>
+      <c r="GO6" s="30"/>
+      <c r="GP6" s="30"/>
+      <c r="GQ6" s="30"/>
+      <c r="GR6" s="30"/>
+      <c r="GS6" s="30"/>
+      <c r="GT6" s="30"/>
+      <c r="GU6" s="30"/>
+      <c r="GV6" s="30"/>
+      <c r="GW6" s="30"/>
+      <c r="GX6" s="30"/>
+      <c r="GY6" s="30"/>
+      <c r="GZ6" s="30"/>
+      <c r="HA6" s="30"/>
+      <c r="HB6" s="30"/>
+      <c r="HC6" s="30"/>
+      <c r="HD6" s="30"/>
+      <c r="HE6" s="30"/>
+      <c r="HF6" s="30"/>
+      <c r="HG6" s="30"/>
+      <c r="HH6" s="30"/>
+      <c r="HI6" s="30"/>
+      <c r="HJ6" s="30"/>
+      <c r="HK6" s="30"/>
+      <c r="HL6" s="30"/>
+      <c r="HM6" s="30"/>
+      <c r="HN6" s="30"/>
+      <c r="HO6" s="30"/>
+      <c r="HP6" s="30"/>
+      <c r="HQ6" s="30"/>
+      <c r="HR6" s="30"/>
+      <c r="HS6" s="30"/>
+      <c r="HT6" s="30"/>
+      <c r="HU6" s="30"/>
+      <c r="HV6" s="30"/>
+      <c r="HW6" s="30"/>
+      <c r="HX6" s="30"/>
+      <c r="HY6" s="30"/>
+      <c r="HZ6" s="30"/>
+      <c r="IA6" s="30"/>
+      <c r="IB6" s="30"/>
+      <c r="IC6" s="30"/>
+      <c r="ID6" s="30"/>
+      <c r="IE6" s="30"/>
+      <c r="IF6" s="30"/>
+    </row>
+    <row r="7" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" ht="29.25" customHeight="1" spans="1:9">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s" s="24">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" ht="29.25" customHeight="1" spans="1:9">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s" s="24">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s" s="24">
-        <v>15</v>
+      <c r="F9" s="19" t="s">
+        <v>9</v>
       </c>
-      <c r="L3" t="s" s="25">
-        <v>16</v>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19" t="s">
+        <v>10</v>
       </c>
-      <c r="M3" t="s" s="23">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s" s="24">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s" s="24">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s" s="24">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s" s="23">
-        <v>18</v>
-      </c>
-      <c r="S3" t="s" s="24">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s" s="24">
-        <v>13</v>
-      </c>
-      <c r="U3" t="s" s="24">
-        <v>14</v>
-      </c>
-      <c r="V3" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="W3" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="X3" t="s" s="24">
-        <v>20</v>
-      </c>
-      <c r="Y3" t="s" s="24">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="s" s="25">
-        <v>15</v>
-      </c>
+      <c r="I9" s="32"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="21"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="21"/>
-    </row>
-    <row r="6" ht="15.65" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
+    <row r="10" ht="36.75" customHeight="1" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M2:Q2"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>